--- a/results/I2_N10_T100_C350_0_P5_res.xlsx
+++ b/results/I2_N10_T100_C350_0_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1414.757905858272</v>
+        <v>659.6248911651033</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01900005340576172</v>
+        <v>0.01999998092651367</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.17977540508634</v>
+        <v>31.85489116510334</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.828170918474254</v>
+        <v>2.580484450641003</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.216301371661726</v>
+        <v>2.580484450641003</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1271.809999999998</v>
+        <v>388.74</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>114.38</v>
+        <v>239.03</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -799,7 +799,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -810,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -901,7 +901,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -945,7 +945,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -967,7 +967,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1047,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34.69770569366315</v>
+        <v>41.36627477390897</v>
       </c>
     </row>
     <row r="5">
@@ -1055,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>30.34885527085025</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37.83898166328444</v>
+        <v>34.76592070603971</v>
       </c>
     </row>
     <row r="7">
@@ -1071,7 +1071,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>37.41391628932763</v>
+        <v>3.63372522609103</v>
       </c>
     </row>
     <row r="8">
@@ -1079,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30.34885527085025</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1087,7 +1087,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30.60033324079214</v>
+        <v>30.60033324079212</v>
       </c>
     </row>
     <row r="10">
@@ -1095,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>35.52673167679941</v>
+        <v>32.45367071955468</v>
       </c>
     </row>
     <row r="11">
@@ -1103,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -1111,7 +1111,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>32.61192465059682</v>
+        <v>32.61192465059678</v>
       </c>
     </row>
     <row r="13">
@@ -1119,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>30</v>
+        <v>38.28184163802894</v>
       </c>
     </row>
     <row r="14">
@@ -1127,7 +1127,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>45</v>
+        <v>43.94675922454998</v>
       </c>
     </row>
     <row r="15">
@@ -1135,7 +1135,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>38.59903231740252</v>
+        <v>32.66758337047729</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>12</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>12</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>12</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>12</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>12</v>
@@ -1246,76 +1246,6 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1418,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>183.7</v>
+        <v>160.935000000001</v>
       </c>
     </row>
     <row r="8">
@@ -1429,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>190.8849999999999</v>
+        <v>168.8299999999991</v>
       </c>
     </row>
     <row r="9">
@@ -1440,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>187.4049999999999</v>
+        <v>160.6899999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1451,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>198.1250000000013</v>
+        <v>165.075000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1462,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>187.0849999999999</v>
+        <v>164.8649999999998</v>
       </c>
     </row>
     <row r="12">
@@ -1473,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>235.775</v>
+        <v>383.435</v>
       </c>
     </row>
     <row r="13">
@@ -1484,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>229.025</v>
+        <v>392.91</v>
       </c>
     </row>
     <row r="14">
@@ -1495,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>213.42</v>
+        <v>385.11</v>
       </c>
     </row>
     <row r="15">
@@ -1506,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>226.76</v>
+        <v>395.935</v>
       </c>
     </row>
     <row r="16">
@@ -1517,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>221.56</v>
+        <v>386.98</v>
       </c>
     </row>
     <row r="17">
@@ -1528,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>46.91999999999942</v>
+        <v>154.3</v>
       </c>
     </row>
     <row r="18">
@@ -1539,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>36.10499999999942</v>
+        <v>148.3449999999993</v>
       </c>
     </row>
     <row r="19">
@@ -1550,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>34.91499999999942</v>
+        <v>128.7049999999993</v>
       </c>
     </row>
     <row r="20">
@@ -1561,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>37.48999999999942</v>
+        <v>146.3249999999993</v>
       </c>
     </row>
     <row r="21">
@@ -1572,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>39.43499999999941</v>
+        <v>134.2149999999993</v>
       </c>
     </row>
     <row r="22">
@@ -1583,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>465.2799999999996</v>
+        <v>226.0399999999994</v>
       </c>
     </row>
     <row r="23">
@@ -1594,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>493.5</v>
+        <v>247.1799999999994</v>
       </c>
     </row>
     <row r="24">
@@ -1605,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>469.25</v>
+        <v>221.8549999999994</v>
       </c>
     </row>
     <row r="25">
@@ -1616,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>496.2749999999995</v>
+        <v>238.4549999999994</v>
       </c>
     </row>
     <row r="26">
@@ -1627,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>461.6</v>
+        <v>224.4749999999995</v>
       </c>
     </row>
     <row r="27">
@@ -1638,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>305.6550000000002</v>
+        <v>50.99000000000022</v>
       </c>
     </row>
     <row r="28">
@@ -1649,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>305.3450000000002</v>
+        <v>51.24000000000022</v>
       </c>
     </row>
     <row r="29">
@@ -1660,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>285.8300000000002</v>
+        <v>47.42000000000021</v>
       </c>
     </row>
     <row r="30">
@@ -1671,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>299.4050000000002</v>
+        <v>45.92000000000021</v>
       </c>
     </row>
     <row r="31">
@@ -1682,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>294.45</v>
+        <v>49.06000000000022</v>
       </c>
     </row>
     <row r="32">
@@ -1693,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>154.3</v>
+        <v>107.3799999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1704,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>148.3449999999993</v>
+        <v>112.2399999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1715,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>128.7049999999993</v>
+        <v>93.78999999999985</v>
       </c>
     </row>
     <row r="35">
@@ -1726,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>146.3249999999993</v>
+        <v>108.8349999999998</v>
       </c>
     </row>
     <row r="36">
@@ -1737,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>134.2149999999993</v>
+        <v>94.77999999999986</v>
       </c>
     </row>
     <row r="37">
@@ -1748,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>266.7750000000008</v>
+        <v>244.0100000000007</v>
       </c>
     </row>
     <row r="38">
@@ -1759,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>275.6050000000008</v>
+        <v>253.55</v>
       </c>
     </row>
     <row r="39">
@@ -1770,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>265.3800000000007</v>
+        <v>238.6650000000007</v>
       </c>
     </row>
     <row r="40">
@@ -1781,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>287.895</v>
+        <v>254.845</v>
       </c>
     </row>
     <row r="41">
@@ -1792,7 +1722,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>268.9400000000007</v>
+        <v>246.7200000000007</v>
       </c>
     </row>
     <row r="42">
@@ -1803,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>392.65</v>
+        <v>153.4099999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1814,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>413.4449999999995</v>
+        <v>167.1249999999999</v>
       </c>
     </row>
     <row r="44">
@@ -1825,7 +1755,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>386.93</v>
+        <v>139.5349999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1836,7 +1766,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>412.32</v>
+        <v>154.5</v>
       </c>
     </row>
     <row r="46">
@@ -1847,7 +1777,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>380.7849999999995</v>
+        <v>143.6599999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1858,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>73.75500000000051</v>
+        <v>85.48500000000051</v>
       </c>
     </row>
     <row r="48">
@@ -1869,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>73.2950000000005</v>
+        <v>87.9650000000005</v>
       </c>
     </row>
     <row r="49">
@@ -1880,7 +1810,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>74.1350000000005</v>
+        <v>79.71500000000052</v>
       </c>
     </row>
     <row r="50">
@@ -1891,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>78.97000000000051</v>
+        <v>90.7300000000005</v>
       </c>
     </row>
     <row r="51">
@@ -1902,7 +1832,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>71.28000000000051</v>
+        <v>84.73000000000052</v>
       </c>
     </row>
     <row r="52">
@@ -1913,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>324.725</v>
+        <v>301.96</v>
       </c>
     </row>
     <row r="53">
@@ -1924,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>334.285</v>
+        <v>312.2299999999993</v>
       </c>
     </row>
     <row r="54">
@@ -1935,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>327.11</v>
+        <v>300.395</v>
       </c>
     </row>
     <row r="55">
@@ -1946,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>348.55</v>
+        <v>315.5</v>
       </c>
     </row>
     <row r="56">
@@ -1957,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>321.855</v>
+        <v>299.635</v>
       </c>
     </row>
     <row r="57">
@@ -1968,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>226.0399999999994</v>
       </c>
     </row>
     <row r="58">
@@ -1979,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>247.1799999999994</v>
       </c>
     </row>
     <row r="59">
@@ -1990,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>221.8549999999994</v>
       </c>
     </row>
     <row r="60">
@@ -2001,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>238.4549999999994</v>
       </c>
     </row>
     <row r="61">
@@ -2012,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>224.4749999999995</v>
       </c>
     </row>
     <row r="62">
@@ -2023,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>465.2799999999996</v>
+        <v>383.435</v>
       </c>
     </row>
     <row r="63">
@@ -2034,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>493.5</v>
+        <v>392.91</v>
       </c>
     </row>
     <row r="64">
@@ -2045,7 +1975,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>469.25</v>
+        <v>385.11</v>
       </c>
     </row>
     <row r="65">
@@ -2056,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>496.2749999999995</v>
+        <v>395.935</v>
       </c>
     </row>
     <row r="66">
@@ -2067,7 +1997,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>461.6</v>
+        <v>386.98</v>
       </c>
     </row>
     <row r="67">
@@ -2078,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>305.6550000000002</v>
+        <v>154.3</v>
       </c>
     </row>
     <row r="68">
@@ -2089,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>305.3450000000002</v>
+        <v>148.3449999999993</v>
       </c>
     </row>
     <row r="69">
@@ -2100,7 +2030,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>285.8300000000002</v>
+        <v>128.7049999999993</v>
       </c>
     </row>
     <row r="70">
@@ -2111,7 +2041,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>299.4050000000002</v>
+        <v>146.3249999999993</v>
       </c>
     </row>
     <row r="71">
@@ -2122,7 +2052,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>294.45</v>
+        <v>134.2149999999993</v>
       </c>
     </row>
   </sheetData>
@@ -2224,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.2799999999996</v>
+        <v>33.435</v>
       </c>
     </row>
     <row r="8">
@@ -2235,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>143.5</v>
+        <v>42.91</v>
       </c>
     </row>
     <row r="9">
@@ -2246,7 +2176,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>119.25</v>
+        <v>35.11</v>
       </c>
     </row>
     <row r="10">
@@ -2257,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>146.2749999999995</v>
+        <v>45.935</v>
       </c>
     </row>
     <row r="11">
@@ -2268,7 +2198,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>111.6</v>
+        <v>36.98</v>
       </c>
     </row>
     <row r="12">
@@ -2590,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>18.89</v>
       </c>
     </row>
     <row r="23">
@@ -2601,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="24">
@@ -2612,7 +2542,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="25">
@@ -2623,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>26.725</v>
       </c>
     </row>
     <row r="26">
@@ -2634,7 +2564,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>23.83</v>
       </c>
     </row>
     <row r="27">
@@ -2810,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>11.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2821,7 +2751,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>14.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2832,7 +2762,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>5.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2843,7 +2773,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>11.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2854,7 +2784,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>13.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2923,7 +2853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2950,7 +2880,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2961,7 +2891,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2972,7 +2902,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2983,7 +2913,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2994,67 +2924,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>

--- a/results/I2_N10_T100_C350_0_P5_res.xlsx
+++ b/results/I2_N10_T100_C350_0_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>659.6248911651033</v>
+        <v>159.0632887764077</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01999998092651367</v>
+        <v>0.01600003242492676</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.85489116510334</v>
+        <v>30.9032887764077</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.580484450641003</v>
+        <v>3.515920931989228</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.580484450641003</v>
+        <v>3.515920931989228</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>388.74</v>
+        <v>128.16</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>239.03</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -799,7 +799,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -810,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -901,7 +901,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>30.60033324079214</v>
       </c>
     </row>
     <row r="4">
@@ -1047,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>41.36627477390897</v>
+        <v>34.72107346555759</v>
       </c>
     </row>
     <row r="5">
@@ -1055,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30.34885527085025</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>34.76592070603971</v>
+        <v>38.58049568810645</v>
       </c>
     </row>
     <row r="7">
@@ -1071,7 +1071,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.63372522609103</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -1079,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>30.34885527085025</v>
       </c>
     </row>
     <row r="9">
@@ -1087,7 +1087,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30.60033324079212</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1095,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>32.45367071955468</v>
+        <v>36.26824570162142</v>
       </c>
     </row>
     <row r="11">
@@ -1103,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>31.94987179065701</v>
       </c>
     </row>
     <row r="12">
@@ -1111,7 +1111,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>32.61192465059678</v>
+        <v>33.35343867541883</v>
       </c>
     </row>
     <row r="13">
@@ -1119,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>38.28184163802894</v>
+        <v>37.3015579161986</v>
       </c>
     </row>
     <row r="14">
@@ -1127,7 +1127,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>43.94675922454998</v>
+        <v>42.09641662009568</v>
       </c>
     </row>
     <row r="15">
@@ -1135,7 +1135,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>32.66758337047729</v>
+        <v>33.01392562639435</v>
       </c>
     </row>
   </sheetData>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>12</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>12</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>12</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>12</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>12</v>
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>160.935000000001</v>
+        <v>193.0200000000017</v>
       </c>
     </row>
     <row r="8">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>168.8299999999991</v>
+        <v>202.3100000000017</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>160.6899999999999</v>
+        <v>191.2450000000017</v>
       </c>
     </row>
     <row r="10">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>165.075000000001</v>
+        <v>208.9250000000017</v>
       </c>
     </row>
     <row r="11">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>164.8649999999998</v>
+        <v>197.6600000000017</v>
       </c>
     </row>
     <row r="12">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>383.435</v>
+        <v>274.4950000000024</v>
       </c>
     </row>
     <row r="13">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>392.91</v>
+        <v>282.9900000000024</v>
       </c>
     </row>
     <row r="14">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>385.11</v>
+        <v>275.9600000000024</v>
       </c>
     </row>
     <row r="15">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>395.935</v>
+        <v>289.3600000000025</v>
       </c>
     </row>
     <row r="16">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>386.98</v>
+        <v>285.0050000000024</v>
       </c>
     </row>
     <row r="17">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>154.3</v>
+        <v>46.91999999999942</v>
       </c>
     </row>
     <row r="18">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>148.3449999999993</v>
+        <v>36.10499999999942</v>
       </c>
     </row>
     <row r="19">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>128.7049999999993</v>
+        <v>34.91499999999942</v>
       </c>
     </row>
     <row r="20">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>146.3249999999993</v>
+        <v>37.48999999999942</v>
       </c>
     </row>
     <row r="21">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>134.2149999999993</v>
+        <v>39.43499999999941</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>226.0399999999994</v>
+        <v>353.87</v>
       </c>
     </row>
     <row r="23">
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>247.1799999999994</v>
+        <v>382.18</v>
       </c>
     </row>
     <row r="24">
@@ -1535,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>221.8549999999994</v>
+        <v>355.995</v>
       </c>
     </row>
     <row r="25">
@@ -1546,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>238.4549999999994</v>
+        <v>371.755</v>
       </c>
     </row>
     <row r="26">
@@ -1557,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>224.4749999999995</v>
+        <v>350.28</v>
       </c>
     </row>
     <row r="27">
@@ -1568,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>50.99000000000022</v>
+        <v>69.88000000000022</v>
       </c>
     </row>
     <row r="28">
@@ -1579,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>51.24000000000022</v>
+        <v>76.32000000000022</v>
       </c>
     </row>
     <row r="29">
@@ -1590,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>47.42000000000021</v>
+        <v>72.41000000000021</v>
       </c>
     </row>
     <row r="30">
@@ -1601,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>45.92000000000021</v>
+        <v>72.64500000000022</v>
       </c>
     </row>
     <row r="31">
@@ -1612,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>49.06000000000022</v>
+        <v>72.89000000000021</v>
       </c>
     </row>
     <row r="32">
@@ -1623,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>107.3799999999999</v>
+        <v>154.3</v>
       </c>
     </row>
     <row r="33">
@@ -1634,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>112.2399999999999</v>
+        <v>148.3449999999993</v>
       </c>
     </row>
     <row r="34">
@@ -1645,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>93.78999999999985</v>
+        <v>128.7049999999993</v>
       </c>
     </row>
     <row r="35">
@@ -1656,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>108.8349999999998</v>
+        <v>146.3249999999993</v>
       </c>
     </row>
     <row r="36">
@@ -1667,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>94.77999999999986</v>
+        <v>134.2149999999993</v>
       </c>
     </row>
     <row r="37">
@@ -1678,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>244.0100000000007</v>
+        <v>83.07500000000087</v>
       </c>
     </row>
     <row r="38">
@@ -1689,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>253.55</v>
+        <v>84.72000000000087</v>
       </c>
     </row>
     <row r="39">
@@ -1700,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>238.6650000000007</v>
+        <v>77.97500000000086</v>
       </c>
     </row>
     <row r="40">
@@ -1711,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>254.845</v>
+        <v>89.77000000000088</v>
       </c>
     </row>
     <row r="41">
@@ -1722,7 +1722,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>246.7200000000007</v>
+        <v>81.85500000000087</v>
       </c>
     </row>
     <row r="42">
@@ -1733,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>153.4099999999999</v>
+        <v>281.24</v>
       </c>
     </row>
     <row r="43">
@@ -1744,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>167.1249999999999</v>
+        <v>302.125</v>
       </c>
     </row>
     <row r="44">
@@ -1755,7 +1755,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>139.5349999999999</v>
+        <v>273.675</v>
       </c>
     </row>
     <row r="45">
@@ -1766,7 +1766,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>154.5</v>
+        <v>287.8</v>
       </c>
     </row>
     <row r="46">
@@ -1777,7 +1777,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>143.6599999999999</v>
+        <v>269.465</v>
       </c>
     </row>
     <row r="47">
@@ -1788,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>85.48500000000051</v>
+        <v>155.3650000000013</v>
       </c>
     </row>
     <row r="48">
@@ -1799,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>87.9650000000005</v>
+        <v>164.2850000000013</v>
       </c>
     </row>
     <row r="49">
@@ -1810,7 +1810,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>79.71500000000052</v>
+        <v>152.1250000000013</v>
       </c>
     </row>
     <row r="50">
@@ -1821,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>90.7300000000005</v>
+        <v>163.3750000000013</v>
       </c>
     </row>
     <row r="51">
@@ -1832,7 +1832,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>84.73000000000052</v>
+        <v>157.6200000000013</v>
       </c>
     </row>
     <row r="52">
@@ -1843,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>301.96</v>
+        <v>213.3150000000006</v>
       </c>
     </row>
     <row r="53">
@@ -1854,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>312.2299999999993</v>
+        <v>222.9650000000006</v>
       </c>
     </row>
     <row r="54">
@@ -1865,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>300.395</v>
+        <v>213.8550000000006</v>
       </c>
     </row>
     <row r="55">
@@ -1876,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>315.5</v>
+        <v>224.0300000000006</v>
       </c>
     </row>
     <row r="56">
@@ -1887,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>299.635</v>
+        <v>210.5350000000006</v>
       </c>
     </row>
     <row r="57">
@@ -1898,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>226.0399999999994</v>
+        <v>274.4950000000024</v>
       </c>
     </row>
     <row r="58">
@@ -1909,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>247.1799999999994</v>
+        <v>282.9900000000024</v>
       </c>
     </row>
     <row r="59">
@@ -1920,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>221.8549999999994</v>
+        <v>275.9600000000024</v>
       </c>
     </row>
     <row r="60">
@@ -1931,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>238.4549999999994</v>
+        <v>289.3600000000025</v>
       </c>
     </row>
     <row r="61">
@@ -1942,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>224.4749999999995</v>
+        <v>285.0050000000024</v>
       </c>
     </row>
     <row r="62">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>383.435</v>
+        <v>353.87</v>
       </c>
     </row>
     <row r="63">
@@ -1964,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>392.91</v>
+        <v>382.18</v>
       </c>
     </row>
     <row r="64">
@@ -1975,7 +1975,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>385.11</v>
+        <v>355.995</v>
       </c>
     </row>
     <row r="65">
@@ -1986,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>395.935</v>
+        <v>371.755</v>
       </c>
     </row>
     <row r="66">
@@ -1997,7 +1997,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>386.98</v>
+        <v>350.28</v>
       </c>
     </row>
     <row r="67">
@@ -2154,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>33.435</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="8">
@@ -2165,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>42.91</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="9">
@@ -2176,7 +2176,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>35.11</v>
+        <v>5.995</v>
       </c>
     </row>
     <row r="10">
@@ -2187,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>45.935</v>
+        <v>21.755</v>
       </c>
     </row>
     <row r="11">
@@ -2198,7 +2198,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>36.98</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="12">
@@ -2520,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>18.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2531,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2542,7 +2542,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>24.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2553,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>26.725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>23.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2880,7 +2880,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
